--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -387,22 +387,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>653</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>531</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>199</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -412,7 +412,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -427,7 +427,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -437,17 +437,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -457,12 +457,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -472,7 +472,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -492,12 +492,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -517,7 +517,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -537,7 +537,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -587,7 +587,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1">

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,132 +387,132 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>667</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>623</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>272</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>266</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>162</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -542,12 +542,12 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -592,17 +592,17 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -672,6 +672,11 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,17 +387,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>868</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -412,7 +412,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -427,7 +427,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -452,7 +452,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -482,12 +482,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -502,7 +502,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -517,17 +517,17 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -552,17 +552,17 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -607,7 +607,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -677,6 +677,11 @@
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -387,37 +387,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1338</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>747</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>647</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -427,12 +427,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -442,72 +442,72 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -522,32 +522,32 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -567,17 +567,17 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -612,12 +612,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1">

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -387,127 +387,127 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1405</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>786</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>734</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>380</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>245</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>157</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>144</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>70</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -527,52 +527,52 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -582,17 +582,17 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -622,12 +622,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1">

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,27 +387,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2210</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>930</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>927</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>328</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -417,47 +417,47 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -467,22 +467,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -492,12 +492,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -507,17 +507,17 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -527,22 +527,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -562,12 +562,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -577,7 +577,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -597,12 +597,12 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -632,7 +632,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -682,6 +682,16 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,311 +387,381 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2314</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1012</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1004</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>387</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>284</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,381 +387,311 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>3607</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2136</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1068</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>491</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>284</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>215</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,57 +387,57 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>3599</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>773</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>701</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -447,7 +447,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -457,17 +457,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -477,7 +477,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -497,42 +497,42 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -557,27 +557,27 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -602,22 +602,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -642,7 +642,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -692,6 +692,16 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
         <v>1</v>
       </c>
     </row>

--- a/New Wave Data🔥/xlsx/provinces-cases.xlsx
+++ b/New Wave Data🔥/xlsx/provinces-cases.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,92 +387,92 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>4121</v>
+        <v>9466</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>800</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>792</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>356</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -482,32 +482,32 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -517,97 +517,97 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -622,22 +622,22 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -647,17 +647,17 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -702,6 +702,16 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
         <v>1</v>
       </c>
     </row>
